--- a/banco/tb_armazenamento_ar.xlsx
+++ b/banco/tb_armazenamento_ar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_811_10-2022\htdocs\cartadigitallizacao\banco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_8_2\htdocs\cartadigitalizacao\banco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>numero_caixa</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>sigla_se_armazenamento</t>
-  </si>
-  <si>
-    <t>numero_etiqueta</t>
   </si>
   <si>
     <t>ACD</t>
@@ -138,6 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +169,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,16 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
@@ -468,20 +468,19 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -508,7 +507,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -521,22 +520,19 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45453</v>
       </c>
@@ -544,7 +540,7 @@
         <v>45840</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>26725386</v>
@@ -565,32 +561,31 @@
         <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
         <v>46051</v>
       </c>
       <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1"/>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45301</v>
       </c>
@@ -598,7 +593,7 @@
         <v>45840</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>26724700</v>
@@ -619,32 +614,31 @@
         <v>1235</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
         <v>46051</v>
       </c>
       <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1"/>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45331</v>
       </c>
@@ -652,7 +646,7 @@
         <v>45840</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>26724739</v>
@@ -673,32 +667,31 @@
         <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1">
         <v>46051</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="1"/>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49075</v>
       </c>
@@ -706,7 +699,7 @@
         <v>45840</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>26780425</v>
@@ -727,32 +720,31 @@
         <v>2902</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1">
         <v>46053</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="1"/>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49768</v>
       </c>
@@ -760,7 +752,7 @@
         <v>45840</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>26788321</v>
@@ -781,32 +773,31 @@
         <v>2773</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1">
         <v>46053</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="1"/>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45967</v>
       </c>
@@ -814,7 +805,7 @@
         <v>45840</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>26736416</v>
@@ -835,32 +826,32 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1">
         <v>46051</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="1"/>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>